--- a/база данных.xlsx
+++ b/база данных.xlsx
@@ -17,102 +17,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
-  <si>
-    <t>расписание</t>
-  </si>
-  <si>
-    <t>ключевое слово</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+  <si>
+    <t>расписание на понедельник:</t>
+  </si>
+  <si>
+    <t>расписание на вторник:</t>
+  </si>
+  <si>
+    <t>расписание на среду:</t>
+  </si>
+  <si>
+    <t>расписание на четверг:</t>
+  </si>
+  <si>
+    <t>расписание на пятницу:</t>
   </si>
   <si>
     <t>09:05-10:25   главный</t>
   </si>
   <si>
-    <t>понедельник</t>
-  </si>
-  <si>
     <t>10:40-11:25   обществознание</t>
   </si>
   <si>
+    <t>10:40-11:25   математика</t>
+  </si>
+  <si>
+    <t>10:40-11:25   химия</t>
+  </si>
+  <si>
+    <t>10:40-11:25   биология</t>
+  </si>
+  <si>
     <t>11:40-12:20   обществознание</t>
   </si>
   <si>
+    <t>11:40-12:20   химия</t>
+  </si>
+  <si>
+    <t>11:40-12:20   экономика</t>
+  </si>
+  <si>
+    <t>11:40-12:20   английский</t>
+  </si>
+  <si>
+    <t>11:40-12:20   математика</t>
+  </si>
+  <si>
     <t>12:30-13:10   русский</t>
   </si>
   <si>
+    <t>12:30-13:10   история</t>
+  </si>
+  <si>
+    <t>12:30-13:10   английский</t>
+  </si>
+  <si>
+    <t>12:30-13:10   эвритмия</t>
+  </si>
+  <si>
     <t>13:30-14:10   живопись</t>
   </si>
   <si>
+    <t>13:30-14:10   информатика</t>
+  </si>
+  <si>
+    <t>13:30-14:10   математика</t>
+  </si>
+  <si>
+    <t>13:30-14:10   экономика</t>
+  </si>
+  <si>
     <t>14:30-15:10   искусство</t>
   </si>
   <si>
-    <t>15:20-16:00   репетиция</t>
-  </si>
-  <si>
-    <t>вторник</t>
-  </si>
-  <si>
-    <t>10:40-11:25   математика</t>
-  </si>
-  <si>
-    <t>11:40-12:20   химия</t>
-  </si>
-  <si>
-    <t>12:30-13:10   история</t>
-  </si>
-  <si>
-    <t>13:30-14:10   информатика</t>
-  </si>
-  <si>
     <t>14:30-15:10   английский</t>
   </si>
   <si>
-    <t>15:20-16:00   искусство</t>
-  </si>
-  <si>
-    <t>среда</t>
-  </si>
-  <si>
-    <t>10:40-11:25   химия</t>
-  </si>
-  <si>
-    <t>11:40-12:20   экономика</t>
-  </si>
-  <si>
-    <t>12:30-13:10   английский</t>
+    <t>14:30-15:10   проект</t>
+  </si>
+  <si>
+    <t>15:20-16:10   репетиция</t>
+  </si>
+  <si>
+    <t>15:20-16:10   искусство</t>
   </si>
   <si>
     <t>15:20-16:00   физкультура</t>
   </si>
   <si>
-    <t>четверг</t>
-  </si>
-  <si>
-    <t>10:40-11:25   биология</t>
-  </si>
-  <si>
-    <t>11:40-12:20   английский</t>
-  </si>
-  <si>
-    <t>12:30-13:10   эвритмия</t>
-  </si>
-  <si>
-    <t>13:30-14:10   математика</t>
-  </si>
-  <si>
-    <t>14:30-15:10   проект</t>
-  </si>
-  <si>
     <t>15:20-16:00   проект</t>
-  </si>
-  <si>
-    <t>пятница</t>
-  </si>
-  <si>
-    <t>11:40-12:20   математика</t>
-  </si>
-  <si>
-    <t>13:30-14:10   экономика</t>
   </si>
   <si>
     <t>15:20-16:00   русский</t>
@@ -131,11 +125,11 @@
     <font>
       <b/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -1385,9 +1379,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="56.13"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="5" width="27.63"/>
+    <col customWidth="1" min="6" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1397,197 +1390,154 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>
